--- a/subjects/resources/1/it_math/LR9.xlsx
+++ b/subjects/resources/1/it_math/LR9.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\ИТ в математике\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_math\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19020" windowHeight="11130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110:C112"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="A544" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="J422" sqref="J422"/>
     </sheetView>
   </sheetViews>
